--- a/data/trans_camb/P10_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,67</t>
+          <t>-1,03; 10,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,84</t>
+          <t>-2,71; 7,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 8,72</t>
+          <t>-1,6; 8,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 15,55</t>
+          <t>-0,3; 15,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,51</t>
+          <t>-0,5; 15,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 11,82</t>
+          <t>-0,37; 11,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 10,58</t>
+          <t>1,3; 10,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 9,68</t>
+          <t>0,01; 9,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,8</t>
+          <t>0,23; 8,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 1225,14</t>
+          <t>-40,15; 980,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,65; —</t>
+          <t>-71,39; 869,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,99; —</t>
+          <t>-61,52; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 456,84</t>
+          <t>-9,54; 420,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 433,3</t>
+          <t>-15,29; 422,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 362,65</t>
+          <t>-10,52; 316,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 396,0</t>
+          <t>14,08; 376,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 319,24</t>
+          <t>-3,93; 345,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 300,85</t>
+          <t>-0,36; 297,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,24</t>
+          <t>-0,36; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,32</t>
+          <t>-1,22; 4,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,17</t>
+          <t>-1,09; 4,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,3</t>
+          <t>5,09; 12,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,29</t>
+          <t>2,21; 8,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,04</t>
+          <t>0,89; 6,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,5</t>
+          <t>3,11; 7,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,84</t>
+          <t>1,22; 5,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,74</t>
+          <t>0,8; 4,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 148,07</t>
+          <t>-7,42; 149,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 135,73</t>
+          <t>-23,8; 121,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 124,17</t>
+          <t>-20,14; 119,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,95; 231,5</t>
+          <t>57,5; 226,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,34; 174,58</t>
+          <t>23,6; 170,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 138,83</t>
+          <t>10,85; 123,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,19; 156,7</t>
+          <t>45,85; 159,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 122,51</t>
+          <t>17,7; 117,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 101,04</t>
+          <t>10,57; 99,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,61</t>
+          <t>-0,31; 4,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,99</t>
+          <t>-3,1; 0,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,07</t>
+          <t>-3,01; 1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,32</t>
+          <t>5,38; 11,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,19</t>
+          <t>1,72; 7,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,96</t>
+          <t>1,09; 5,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,05</t>
+          <t>3,28; 7,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,49</t>
+          <t>0,06; 3,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,99</t>
+          <t>-0,18; 3,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 92,03</t>
+          <t>-6,62; 90,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 21,55</t>
+          <t>-43,65; 20,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 21,71</t>
+          <t>-42,0; 22,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57,74; 182,46</t>
+          <t>55,57; 175,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 113,87</t>
+          <t>18,63; 118,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,08; 97,12</t>
+          <t>12,02; 97,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,97; 119,03</t>
+          <t>42,64; 117,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 57,39</t>
+          <t>1,05; 60,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 49,94</t>
+          <t>-2,4; 50,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,91</t>
+          <t>-4,72; 0,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,23</t>
+          <t>-4,64; 1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,82</t>
+          <t>-1,58; 4,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,05</t>
+          <t>-3,63; 3,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,96</t>
+          <t>-4,28; 3,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,92</t>
+          <t>-7,29; 0,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,42</t>
+          <t>-3,14; 1,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,46</t>
+          <t>-2,99; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,96</t>
+          <t>-3,24; 1,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 19,73</t>
+          <t>-53,05; 16,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 24,4</t>
+          <t>-51,48; 21,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 77,56</t>
+          <t>-19,83; 78,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 26,63</t>
+          <t>-24,22; 31,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 26,25</t>
+          <t>-27,27; 26,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 7,81</t>
+          <t>-49,07; 5,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 15,08</t>
+          <t>-27,62; 15,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 17,06</t>
+          <t>-26,02; 19,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 21,41</t>
+          <t>-28,08; 20,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,24</t>
+          <t>-1,43; 3,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,33</t>
+          <t>-1,5; 3,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,49</t>
+          <t>-3,07; 1,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,22</t>
+          <t>0,72; 6,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,8</t>
+          <t>-1,57; 3,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,69</t>
+          <t>0,11; 5,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,47</t>
+          <t>0,57; 4,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,92</t>
+          <t>-0,87; 2,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,05</t>
+          <t>-0,43; 3,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 60,96</t>
+          <t>-18,66; 62,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 62,53</t>
+          <t>-19,58; 63,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 27,17</t>
+          <t>-39,06; 33,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,2; 80,61</t>
+          <t>6,0; 76,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 42,46</t>
+          <t>-13,81; 43,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,71; 60,71</t>
+          <t>0,85; 60,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,25; 58,14</t>
+          <t>5,72; 59,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 38,14</t>
+          <t>-9,03; 35,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 39,22</t>
+          <t>-4,73; 42,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-0,08; 2,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-1,12; 1,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,4</t>
+          <t>-1,02; 1,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>3,58; 6,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,32; 4,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,6</t>
+          <t>0,44; 3,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,21; 4,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,4; 2,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,43</t>
+          <t>0,3; 2,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,0</t>
+          <t>-1,17; 43,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 21,52</t>
+          <t>-17,3; 22,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 25,74</t>
+          <t>-15,49; 26,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,14; 75,35</t>
+          <t>35,19; 79,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,89; 51,67</t>
+          <t>12,71; 48,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,93; 40,75</t>
+          <t>4,54; 41,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,88; 58,26</t>
+          <t>26,82; 58,6</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,22</t>
+          <t>4,79; 32,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4,75; 33,6</t>
+          <t>3,75; 31,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,07</t>
+          <t>-1,18; 9,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,82</t>
+          <t>-2,37; 8,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 8,9</t>
+          <t>-2,47; 9,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 15,84</t>
+          <t>-0,34; 15,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 15,65</t>
+          <t>-0,12; 16,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,36</t>
+          <t>-0,64; 11,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,72</t>
+          <t>1,35; 10,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,76</t>
+          <t>0,01; 10,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,42</t>
+          <t>0,41; 8,59</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 980,8</t>
+          <t>-44,89; 945,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-71,39; 869,17</t>
+          <t>-79,79; 1068,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,52; —</t>
+          <t>-65,78; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 420,74</t>
+          <t>-8,29; 436,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 422,31</t>
+          <t>-8,57; 457,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 316,2</t>
+          <t>-12,64; 366,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 376,27</t>
+          <t>13,21; 356,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 345,04</t>
+          <t>-6,21; 324,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 297,1</t>
+          <t>4,05; 307,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,98</t>
+          <t>-0,78; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,01</t>
+          <t>-1,16; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,03</t>
+          <t>-1,27; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,37</t>
+          <t>5,33; 12,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,91</t>
+          <t>2,68; 9,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,61</t>
+          <t>1,03; 6,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,64</t>
+          <t>3,19; 7,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,64</t>
+          <t>1,54; 5,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,6</t>
+          <t>0,7; 4,51</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 149,93</t>
+          <t>-15,06; 143,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 121,77</t>
+          <t>-22,1; 119,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 119,92</t>
+          <t>-23,22; 107,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,5; 226,69</t>
+          <t>60,47; 235,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 170,81</t>
+          <t>32,55; 172,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 123,68</t>
+          <t>10,58; 129,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,85; 159,61</t>
+          <t>47,82; 155,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 117,69</t>
+          <t>18,04; 113,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 99,85</t>
+          <t>9,48; 95,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,69</t>
+          <t>-0,23; 4,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,99</t>
+          <t>-2,87; 1,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,09</t>
+          <t>-3,14; 1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,31</t>
+          <t>5,22; 11,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,55</t>
+          <t>2,0; 7,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,96</t>
+          <t>1,32; 5,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,13</t>
+          <t>3,15; 7,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,56</t>
+          <t>-0,12; 3,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,0</t>
+          <t>-0,15; 3,04</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 90,13</t>
+          <t>-3,87; 86,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 20,32</t>
+          <t>-41,48; 19,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,0; 22,55</t>
+          <t>-43,33; 23,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,57; 175,07</t>
+          <t>58,75; 183,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,63; 118,89</t>
+          <t>21,43; 120,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,02; 97,47</t>
+          <t>14,56; 99,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,64; 117,96</t>
+          <t>39,72; 118,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 60,11</t>
+          <t>-1,36; 61,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 50,01</t>
+          <t>-2,46; 49,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,93</t>
+          <t>-4,65; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,17</t>
+          <t>-4,2; 1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,67</t>
+          <t>-1,63; 4,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 3,6</t>
+          <t>-3,52; 3,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,03</t>
+          <t>-3,74; 3,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 0,68</t>
+          <t>-7,35; 0,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,42</t>
+          <t>-3,3; 1,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,7</t>
+          <t>-3,01; 1,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,93</t>
+          <t>-3,53; 1,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,05; 16,09</t>
+          <t>-51,87; 22,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 21,04</t>
+          <t>-46,98; 22,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 78,78</t>
+          <t>-19,36; 75,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 31,83</t>
+          <t>-23,22; 30,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 26,2</t>
+          <t>-24,81; 30,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 5,24</t>
+          <t>-48,27; 7,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 15,53</t>
+          <t>-28,66; 12,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 19,41</t>
+          <t>-26,03; 17,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 20,9</t>
+          <t>-31,25; 20,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,33</t>
+          <t>-1,56; 3,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,25</t>
+          <t>-1,29; 3,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,67</t>
+          <t>-2,85; 1,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,76</t>
+          <t>1,0; 6,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,93</t>
+          <t>-2,18; 3,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 5,43</t>
+          <t>0,2; 5,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,44</t>
+          <t>0,64; 4,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,71</t>
+          <t>-0,72; 2,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,23</t>
+          <t>-0,46; 3,2</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 62,49</t>
+          <t>-20,23; 66,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 63,96</t>
+          <t>-16,84; 62,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 33,35</t>
+          <t>-37,45; 29,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,0; 76,23</t>
+          <t>7,88; 77,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 43,26</t>
+          <t>-19,55; 38,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,85; 60,45</t>
+          <t>1,7; 60,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,72; 59,38</t>
+          <t>6,68; 58,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 35,89</t>
+          <t>-7,92; 38,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 42,79</t>
+          <t>-4,94; 41,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,4</t>
+          <t>-0,22; 2,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,22</t>
+          <t>-1,22; 1,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,44</t>
+          <t>-1,02; 1,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,92</t>
+          <t>3,69; 6,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,26</t>
+          <t>1,17; 4,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,59</t>
+          <t>0,5; 3,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,3</t>
+          <t>2,17; 4,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,44</t>
+          <t>0,51; 2,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,3</t>
+          <t>0,32; 2,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 43,93</t>
+          <t>-3,53; 39,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 22,54</t>
+          <t>-18,7; 21,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 26,27</t>
+          <t>-15,33; 23,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,19; 79,23</t>
+          <t>37,59; 80,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>12,71; 48,66</t>
+          <t>11,87; 50,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,54; 41,05</t>
+          <t>5,05; 42,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,82; 58,6</t>
+          <t>26,41; 57,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,79; 32,85</t>
+          <t>6,46; 33,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>3,75; 31,53</t>
+          <t>3,78; 30,04</t>
         </is>
       </c>
     </row>
